--- a/data/evaluation/evaluation_South_Autumn_Eggplants.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Eggplants.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4479.924081875048</v>
+        <v>4450.408582552184</v>
       </c>
       <c r="C4" t="n">
-        <v>29670989.27582343</v>
+        <v>29532852.39038264</v>
       </c>
       <c r="D4" t="n">
-        <v>5447.108340745889</v>
+        <v>5434.413711743213</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.07726453190562466</v>
+        <v>-0.07224919635850413</v>
       </c>
     </row>
     <row r="5">
